--- a/medicine/Enfance/Annie_Vintze/Annie_Vintze.xlsx
+++ b/medicine/Enfance/Annie_Vintze/Annie_Vintze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annie Vintze est une auteure québécoise de littérature pour la jeunesse née à Québec[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Vintze est une auteure québécoise de littérature pour la jeunesse née à Québec.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annie Vintze naît à Québec d'un père d'origine hongroise[2].
-Elle fait des études à l'Université Concordia de Montréal[3].
-Elle habite la région de Montréal depuis son enfance[réf. souhaitée], et y a enseigné pendant près de 35 ans le français et l’histoire dans le secondaire[4], au collège Letendre de Laval[5].
-Elle écrit Le Silence d’Enrique à son retour de voyage dans le sud-ouest de la France. Avec Au Sud du Rio Grande, elle a été finaliste du Prix du livre M. Christie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Vintze naît à Québec d'un père d'origine hongroise.
+Elle fait des études à l'Université Concordia de Montréal.
+Elle habite la région de Montréal depuis son enfance[réf. souhaitée], et y a enseigné pendant près de 35 ans le français et l’histoire dans le secondaire, au collège Letendre de Laval.
+Elle écrit Le Silence d’Enrique à son retour de voyage dans le sud-ouest de la France. Avec Au Sud du Rio Grande, elle a été finaliste du Prix du livre M. Christie.
 Annie Vintze est mère de deux filles.
-Elle vit depuis 2019 à Sainte-Adèle[6] ; elle passe cependant la majorité de son temps dans les Laurentides, où elle possède une maison de campagne et pratique le ski de fond[4].
+Elle vit depuis 2019 à Sainte-Adèle ; elle passe cependant la majorité de son temps dans les Laurentides, où elle possède une maison de campagne et pratique le ski de fond.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au sud du Rio Grande (avec des illustrations de Luc Normandin), éditions Pierre Tisseyre, coll. « Conquêtes » no 91, Saint-Laurent, 2002, 234 p.,  (ISBN 289051840X)
 Le Silence d'Enrique, éditions Pierre Tisseyre, coll. « Conquêtes » no 100, Saint-Laurent, 2004, 240 p.,  (ISBN 2890518981)
